--- a/data/Computation Times.xlsx
+++ b/data/Computation Times.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\22_REACH\03 TOOLS\PCPA_RHINO_TOOLBAR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9FF27FE4-9CA3-44F0-95DF-22AEB93E224F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E5D5E0-4D15-40FE-BF29-CA4997B7F613}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14025" xr2:uid="{45EE6BA4-1463-4216-A683-8E0B5BE58B2A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>base</t>
   </si>
@@ -45,22 +45,13 @@
     <t>Time (Sec)</t>
   </si>
   <si>
-    <t>Minutes</t>
-  </si>
-  <si>
-    <t>Seconds</t>
-  </si>
-  <si>
-    <t>Times Run</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
     <t>Iterate Design Option</t>
   </si>
   <si>
     <t>Time Saved (Sec) / Run</t>
+  </si>
+  <si>
+    <t>Make Block Unique</t>
   </si>
 </sst>
 </file>
@@ -84,21 +75,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -139,26 +124,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -171,7 +141,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,21 +455,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FC2A48-9670-46BC-BF6D-38FF80B4B942}">
-  <dimension ref="C7:J20"/>
+  <dimension ref="C7:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="23.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
@@ -508,22 +477,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
@@ -534,7 +491,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="9" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
@@ -545,7 +502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="3:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
@@ -561,15 +518,8 @@
         <f>D10-E10</f>
         <v>17.34</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f>G10*F10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
         <v>0</v>
       </c>
@@ -577,7 +527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
@@ -588,12 +538,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="3:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
@@ -609,23 +559,8 @@
         <f>D15-E15</f>
         <v>156</v>
       </c>
-      <c r="G15">
-        <v>82</v>
-      </c>
-      <c r="H15">
-        <f>G15*F15</f>
-        <v>12792</v>
-      </c>
-      <c r="I15">
-        <f>H15/60</f>
-        <v>213.2</v>
-      </c>
-      <c r="J15" s="6">
-        <f>I15/60</f>
-        <v>3.5533333333333332</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
         <v>0</v>
       </c>
@@ -633,7 +568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
         <v>5</v>
       </c>
@@ -644,7 +579,7 @@
         <v>25.01</v>
       </c>
     </row>
-    <row r="19" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
         <v>3</v>
       </c>
@@ -655,9 +590,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="3:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1">
         <f>D18/D19</f>
@@ -671,20 +606,52 @@
         <f>D20-E20</f>
         <v>15.689</v>
       </c>
-      <c r="G20">
-        <v>42</v>
-      </c>
-      <c r="H20">
-        <f>G20*F20</f>
-        <v>658.93799999999999</v>
-      </c>
-      <c r="I20">
-        <f>H20/60</f>
-        <v>10.9823</v>
-      </c>
-      <c r="J20" s="6">
-        <f>I20/60</f>
-        <v>0.18303833333333333</v>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>136.44</v>
+      </c>
+      <c r="E23">
+        <v>20.95</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <f>D23/D24</f>
+        <v>13.644</v>
+      </c>
+      <c r="E25" s="1">
+        <f>E23/E24</f>
+        <v>2.0949999999999998</v>
+      </c>
+      <c r="F25" s="3">
+        <f>D25-E25</f>
+        <v>11.548999999999999</v>
       </c>
     </row>
   </sheetData>
